--- a/spreadsheet/testdata/simple-2.xlsx
+++ b/spreadsheet/testdata/simple-2.xlsx
@@ -54,7 +54,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <ma:worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ma="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xml="http://www.w3.org/XML/1998/namespace">
-  <ma:dimension ref="A1"/>
+  <ma:dimension ref="A1:A1"/>
   <ma:sheetData>
     <ma:row r="1">
       <ma:c r="A1" t="s">
